--- a/data/pca/factorExposure/factorExposure_2015-09-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02402433435859732</v>
+        <v>0.02056797468007572</v>
       </c>
       <c r="C2">
-        <v>0.03433007959727509</v>
+        <v>-0.04434268494262736</v>
       </c>
       <c r="D2">
-        <v>0.1108318110416117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1283894160157142</v>
+      </c>
+      <c r="E2">
+        <v>-0.04712338112034832</v>
+      </c>
+      <c r="F2">
+        <v>0.0330311352678689</v>
+      </c>
+      <c r="G2">
+        <v>-0.08339328495866644</v>
+      </c>
+      <c r="H2">
+        <v>0.06020390015633979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.006620904696135681</v>
+        <v>0.0009192979343202495</v>
       </c>
       <c r="C3">
-        <v>0.04680786748697448</v>
+        <v>-0.0367214995941664</v>
       </c>
       <c r="D3">
-        <v>0.06598073733574256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.04902728329073074</v>
+      </c>
+      <c r="E3">
+        <v>-0.0667932335548963</v>
+      </c>
+      <c r="F3">
+        <v>0.05927065685509533</v>
+      </c>
+      <c r="G3">
+        <v>-0.1317020601736403</v>
+      </c>
+      <c r="H3">
+        <v>0.057414820954701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05124328680097337</v>
+        <v>0.04410103528962556</v>
       </c>
       <c r="C4">
-        <v>0.06934377376480451</v>
+        <v>-0.08484259979714209</v>
       </c>
       <c r="D4">
-        <v>0.1260756786166946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1439053768410315</v>
+      </c>
+      <c r="E4">
+        <v>-0.05898201634465387</v>
+      </c>
+      <c r="F4">
+        <v>0.05655668114778242</v>
+      </c>
+      <c r="G4">
+        <v>0.05167092771513261</v>
+      </c>
+      <c r="H4">
+        <v>0.01273193778600844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03425818605638725</v>
+        <v>0.03411641213228694</v>
       </c>
       <c r="C6">
-        <v>0.02806821601118895</v>
+        <v>-0.03619701870127309</v>
       </c>
       <c r="D6">
-        <v>0.1510808947302675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.140934759960043</v>
+      </c>
+      <c r="E6">
+        <v>-0.01166508041079493</v>
+      </c>
+      <c r="F6">
+        <v>0.05322937038917887</v>
+      </c>
+      <c r="G6">
+        <v>-0.003308830768633891</v>
+      </c>
+      <c r="H6">
+        <v>0.05516459934636182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01987934808815726</v>
+        <v>0.01647897498328653</v>
       </c>
       <c r="C7">
-        <v>0.03115037091981045</v>
+        <v>-0.03833977875208344</v>
       </c>
       <c r="D7">
-        <v>0.1093390869276723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09892670434763598</v>
+      </c>
+      <c r="E7">
+        <v>0.001311698343143109</v>
+      </c>
+      <c r="F7">
+        <v>0.03142506218829839</v>
+      </c>
+      <c r="G7">
+        <v>-0.02659184258541869</v>
+      </c>
+      <c r="H7">
+        <v>0.06287978748991609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01072014397440454</v>
+        <v>0.005576766327074924</v>
       </c>
       <c r="C8">
-        <v>0.03572564638659154</v>
+        <v>-0.04026488863354877</v>
       </c>
       <c r="D8">
-        <v>0.06208523380036339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07592055354974675</v>
+      </c>
+      <c r="E8">
+        <v>-0.02571873922793721</v>
+      </c>
+      <c r="F8">
+        <v>0.07245681872377049</v>
+      </c>
+      <c r="G8">
+        <v>-0.0532044070525844</v>
+      </c>
+      <c r="H8">
+        <v>0.03644565140535766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04186489765377464</v>
+        <v>0.03508881606273682</v>
       </c>
       <c r="C9">
-        <v>0.06229093322471801</v>
+        <v>-0.07436119616258502</v>
       </c>
       <c r="D9">
-        <v>0.1158834498837688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1231034763854251</v>
+      </c>
+      <c r="E9">
+        <v>-0.04144700485135872</v>
+      </c>
+      <c r="F9">
+        <v>0.03662460409112973</v>
+      </c>
+      <c r="G9">
+        <v>0.03284460446714523</v>
+      </c>
+      <c r="H9">
+        <v>0.007817668682866418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.131828354427085</v>
+        <v>0.1763907427197835</v>
       </c>
       <c r="C10">
-        <v>-0.1822650086683683</v>
+        <v>0.1674598288991312</v>
       </c>
       <c r="D10">
-        <v>0.0002480996951106281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.007871505397507151</v>
+      </c>
+      <c r="E10">
+        <v>-0.03375580752999445</v>
+      </c>
+      <c r="F10">
+        <v>0.03989838766447596</v>
+      </c>
+      <c r="G10">
+        <v>0.01542236672123794</v>
+      </c>
+      <c r="H10">
+        <v>-0.04774797118760879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03333091748571818</v>
+        <v>0.02762424387836353</v>
       </c>
       <c r="C11">
-        <v>0.04411578006856993</v>
+        <v>-0.05225720095653243</v>
       </c>
       <c r="D11">
-        <v>0.06023778909958593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0549348135900528</v>
+      </c>
+      <c r="E11">
+        <v>0.01480462823650661</v>
+      </c>
+      <c r="F11">
+        <v>-0.003157938533212527</v>
+      </c>
+      <c r="G11">
+        <v>-0.01450100805410992</v>
+      </c>
+      <c r="H11">
+        <v>0.02627339554340194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03741097279029373</v>
+        <v>0.03017797536755436</v>
       </c>
       <c r="C12">
-        <v>0.04688217383438985</v>
+        <v>-0.05376369925990892</v>
       </c>
       <c r="D12">
-        <v>0.06301671877364735</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05465985533206615</v>
+      </c>
+      <c r="E12">
+        <v>0.004320428977961581</v>
+      </c>
+      <c r="F12">
+        <v>-0.008086952502493163</v>
+      </c>
+      <c r="G12">
+        <v>-0.01594554168236033</v>
+      </c>
+      <c r="H12">
+        <v>0.03246327588664069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01037326726873392</v>
+        <v>0.01341529289179698</v>
       </c>
       <c r="C13">
-        <v>0.03658121793396537</v>
+        <v>-0.0461556497754563</v>
       </c>
       <c r="D13">
-        <v>0.1375925115037673</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1577340221223602</v>
+      </c>
+      <c r="E13">
+        <v>-0.01749207317729171</v>
+      </c>
+      <c r="F13">
+        <v>0.07565333344987532</v>
+      </c>
+      <c r="G13">
+        <v>-0.04074676385804601</v>
+      </c>
+      <c r="H13">
+        <v>0.03653985428221409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005142779852958263</v>
+        <v>0.006413035390691193</v>
       </c>
       <c r="C14">
-        <v>0.02382244643379072</v>
+        <v>-0.0281019506520871</v>
       </c>
       <c r="D14">
-        <v>0.1015711753837759</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1038053783688022</v>
+      </c>
+      <c r="E14">
+        <v>-0.02054147827131868</v>
+      </c>
+      <c r="F14">
+        <v>0.02919715882163447</v>
+      </c>
+      <c r="G14">
+        <v>-0.02955936594764922</v>
+      </c>
+      <c r="H14">
+        <v>0.08457880974044482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003086535563452065</v>
+        <v>0.001391291730351289</v>
       </c>
       <c r="C15">
-        <v>0.005663664031105644</v>
+        <v>-0.01399153001892675</v>
       </c>
       <c r="D15">
-        <v>0.009980380280102119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03953415552270995</v>
+      </c>
+      <c r="E15">
+        <v>-0.008714991812899853</v>
+      </c>
+      <c r="F15">
+        <v>0.008238677944360482</v>
+      </c>
+      <c r="G15">
+        <v>-0.008090559838228794</v>
+      </c>
+      <c r="H15">
+        <v>0.01743253357130973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03096018650897419</v>
+        <v>0.0261334123411452</v>
       </c>
       <c r="C16">
-        <v>0.04524439132420354</v>
+        <v>-0.05113941558043776</v>
       </c>
       <c r="D16">
-        <v>0.0690647844072948</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06102079257420744</v>
+      </c>
+      <c r="E16">
+        <v>-0.003658500458577375</v>
+      </c>
+      <c r="F16">
+        <v>0.00476878479197345</v>
+      </c>
+      <c r="G16">
+        <v>-0.01465611619027007</v>
+      </c>
+      <c r="H16">
+        <v>0.04292839941568106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.009516825501146268</v>
+        <v>0.005217114367685473</v>
       </c>
       <c r="C19">
-        <v>0.0352508082658845</v>
+        <v>-0.03019116759691</v>
       </c>
       <c r="D19">
-        <v>0.146498329637529</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1122917615289016</v>
+      </c>
+      <c r="E19">
+        <v>-0.0550279352669622</v>
+      </c>
+      <c r="F19">
+        <v>0.01444339895622632</v>
+      </c>
+      <c r="G19">
+        <v>-0.02828083635647289</v>
+      </c>
+      <c r="H19">
+        <v>0.04779869741733059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01431153769915261</v>
+        <v>0.01426600348110163</v>
       </c>
       <c r="C20">
-        <v>0.03539746319949154</v>
+        <v>-0.04031481448979739</v>
       </c>
       <c r="D20">
-        <v>0.0929162064887443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1059910282352989</v>
+      </c>
+      <c r="E20">
+        <v>-0.04145449258991198</v>
+      </c>
+      <c r="F20">
+        <v>0.02906360767307533</v>
+      </c>
+      <c r="G20">
+        <v>-0.008774230278135906</v>
+      </c>
+      <c r="H20">
+        <v>0.05001208313939533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01014481613021868</v>
+        <v>0.007687770585421887</v>
       </c>
       <c r="C21">
-        <v>0.03825131835292512</v>
+        <v>-0.04394276557584723</v>
       </c>
       <c r="D21">
-        <v>0.1517875903730951</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1504170195263676</v>
+      </c>
+      <c r="E21">
+        <v>-0.07342342162662241</v>
+      </c>
+      <c r="F21">
+        <v>0.06446297593328204</v>
+      </c>
+      <c r="G21">
+        <v>-0.01033866539613037</v>
+      </c>
+      <c r="H21">
+        <v>0.07836152825589481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.000373611389153592</v>
+        <v>0.006991985390439851</v>
       </c>
       <c r="C22">
-        <v>0.04866804023758295</v>
+        <v>-0.04974425590486296</v>
       </c>
       <c r="D22">
-        <v>0.1265892562977617</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1834694511694605</v>
+      </c>
+      <c r="E22">
+        <v>-0.01131604518620577</v>
+      </c>
+      <c r="F22">
+        <v>0.1248639445212955</v>
+      </c>
+      <c r="G22">
+        <v>-0.1032010758048057</v>
+      </c>
+      <c r="H22">
+        <v>-0.08676930285248641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0005405570916553977</v>
+        <v>0.007067848512166471</v>
       </c>
       <c r="C23">
-        <v>0.04898030782084049</v>
+        <v>-0.05030252496957902</v>
       </c>
       <c r="D23">
-        <v>0.1260119278084286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1826069687120945</v>
+      </c>
+      <c r="E23">
+        <v>-0.01145043781979829</v>
+      </c>
+      <c r="F23">
+        <v>0.1248666281745839</v>
+      </c>
+      <c r="G23">
+        <v>-0.1024806722339021</v>
+      </c>
+      <c r="H23">
+        <v>-0.08690026367251669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03717385313114135</v>
+        <v>0.02868927094453576</v>
       </c>
       <c r="C24">
-        <v>0.05831019716539382</v>
+        <v>-0.06420572739035614</v>
       </c>
       <c r="D24">
-        <v>0.06815633578467241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06150842938727386</v>
+      </c>
+      <c r="E24">
+        <v>-0.001463705822095594</v>
+      </c>
+      <c r="F24">
+        <v>0.003289130573188589</v>
+      </c>
+      <c r="G24">
+        <v>-0.00862276128959122</v>
+      </c>
+      <c r="H24">
+        <v>0.05447635881980956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04153267998669138</v>
+        <v>0.03354719378944133</v>
       </c>
       <c r="C25">
-        <v>0.0529031048203918</v>
+        <v>-0.06079855471278173</v>
       </c>
       <c r="D25">
-        <v>0.06665671722646262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0602392942923879</v>
+      </c>
+      <c r="E25">
+        <v>-0.006205701381628956</v>
+      </c>
+      <c r="F25">
+        <v>0.004764573703665276</v>
+      </c>
+      <c r="G25">
+        <v>-0.01316928741136947</v>
+      </c>
+      <c r="H25">
+        <v>0.02131709133603941</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01356931182047634</v>
+        <v>0.01385109433301416</v>
       </c>
       <c r="C26">
-        <v>0.0141333866191818</v>
+        <v>-0.02236593475701782</v>
       </c>
       <c r="D26">
-        <v>0.06818653849104546</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.07270188407413912</v>
+      </c>
+      <c r="E26">
+        <v>-0.01803729330145066</v>
+      </c>
+      <c r="F26">
+        <v>0.03292007451081783</v>
+      </c>
+      <c r="G26">
+        <v>-0.0178164359298798</v>
+      </c>
+      <c r="H26">
+        <v>0.0500946808785635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1967786257727279</v>
+        <v>0.2551422067127205</v>
       </c>
       <c r="C28">
-        <v>-0.2495765333891463</v>
+        <v>0.2213588984228992</v>
       </c>
       <c r="D28">
-        <v>-0.01375106413877999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.007952232106853264</v>
+      </c>
+      <c r="E28">
+        <v>-0.05736385279858905</v>
+      </c>
+      <c r="F28">
+        <v>0.02803119350109498</v>
+      </c>
+      <c r="G28">
+        <v>0.04278794948683558</v>
+      </c>
+      <c r="H28">
+        <v>-0.06221202096479038</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003219068679199738</v>
+        <v>0.004919583301031163</v>
       </c>
       <c r="C29">
-        <v>0.02248557417315327</v>
+        <v>-0.02707661702649889</v>
       </c>
       <c r="D29">
-        <v>0.09214741474024589</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1013098876628671</v>
+      </c>
+      <c r="E29">
+        <v>-0.008623605698178514</v>
+      </c>
+      <c r="F29">
+        <v>0.04818972509033941</v>
+      </c>
+      <c r="G29">
+        <v>-0.0211802888848105</v>
+      </c>
+      <c r="H29">
+        <v>0.08230854381177991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03186595502038137</v>
+        <v>0.03360176596506207</v>
       </c>
       <c r="C30">
-        <v>0.06405735593382399</v>
+        <v>-0.07567705029232617</v>
       </c>
       <c r="D30">
-        <v>0.159866666931753</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1689639192549557</v>
+      </c>
+      <c r="E30">
+        <v>-0.01101142928050521</v>
+      </c>
+      <c r="F30">
+        <v>0.04366919471307911</v>
+      </c>
+      <c r="G30">
+        <v>-0.00152307163774252</v>
+      </c>
+      <c r="H30">
+        <v>0.05951166809696526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0567234014415559</v>
+        <v>0.04154677939615387</v>
       </c>
       <c r="C31">
-        <v>0.07514928339369584</v>
+        <v>-0.08380094655524385</v>
       </c>
       <c r="D31">
-        <v>0.05152214699003603</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04106649711668578</v>
+      </c>
+      <c r="E31">
+        <v>-0.0207425587079235</v>
+      </c>
+      <c r="F31">
+        <v>0.04010740013510243</v>
+      </c>
+      <c r="G31">
+        <v>-0.01638061214285252</v>
+      </c>
+      <c r="H31">
+        <v>0.01998813494648706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02116217047305008</v>
+        <v>0.02067778248386451</v>
       </c>
       <c r="C32">
-        <v>0.02293120914698355</v>
+        <v>-0.02809631754629181</v>
       </c>
       <c r="D32">
-        <v>0.09068584631994661</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1173584520500554</v>
+      </c>
+      <c r="E32">
+        <v>-0.04834202751814666</v>
+      </c>
+      <c r="F32">
+        <v>0.06316091883937493</v>
+      </c>
+      <c r="G32">
+        <v>-0.01139332562621045</v>
+      </c>
+      <c r="H32">
+        <v>0.02829971122730411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02131560686679963</v>
+        <v>0.02124374237304725</v>
       </c>
       <c r="C33">
-        <v>0.044253634413059</v>
+        <v>-0.05174867168929994</v>
       </c>
       <c r="D33">
-        <v>0.1416516225199597</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1368275221297679</v>
+      </c>
+      <c r="E33">
+        <v>-0.0339832525784046</v>
+      </c>
+      <c r="F33">
+        <v>0.03873706459553987</v>
+      </c>
+      <c r="G33">
+        <v>-0.01309459380981943</v>
+      </c>
+      <c r="H33">
+        <v>0.04688557209335893</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03450717114904618</v>
+        <v>0.02523176840951096</v>
       </c>
       <c r="C34">
-        <v>0.06474021853336277</v>
+        <v>-0.06677206049701925</v>
       </c>
       <c r="D34">
-        <v>0.06588079466346226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05011537949646683</v>
+      </c>
+      <c r="E34">
+        <v>0.01412742809788823</v>
+      </c>
+      <c r="F34">
+        <v>-0.01403278889346243</v>
+      </c>
+      <c r="G34">
+        <v>-0.02767000636200012</v>
+      </c>
+      <c r="H34">
+        <v>0.04497682845893008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001226593935712852</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.001795479414042063</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.009583943317762088</v>
+      </c>
+      <c r="E35">
+        <v>0.0002491780070676667</v>
+      </c>
+      <c r="F35">
+        <v>0.001923230851916951</v>
+      </c>
+      <c r="G35">
+        <v>-0.0009418075066370951</v>
+      </c>
+      <c r="H35">
+        <v>0.003000328312053693</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01922083953106379</v>
+        <v>0.01886147809408758</v>
       </c>
       <c r="C36">
-        <v>0.008856931601906757</v>
+        <v>-0.01929124273324391</v>
       </c>
       <c r="D36">
-        <v>0.09317077745564421</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08670963811607202</v>
+      </c>
+      <c r="E36">
+        <v>-0.02273537604383261</v>
+      </c>
+      <c r="F36">
+        <v>0.0248122826266042</v>
+      </c>
+      <c r="G36">
+        <v>0.002950821875259615</v>
+      </c>
+      <c r="H36">
+        <v>0.04177115290259111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01598333442347118</v>
+        <v>0.02020886454229655</v>
       </c>
       <c r="C38">
-        <v>0.01617483778156095</v>
+        <v>-0.02007905689359209</v>
       </c>
       <c r="D38">
-        <v>0.07758320819409141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.07778555542818158</v>
+      </c>
+      <c r="E38">
+        <v>-0.03479491980548125</v>
+      </c>
+      <c r="F38">
+        <v>-0.009537551900378007</v>
+      </c>
+      <c r="G38">
+        <v>-0.02533955125870271</v>
+      </c>
+      <c r="H38">
+        <v>0.03562644794998496</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03758867326422547</v>
+        <v>0.02989719841622392</v>
       </c>
       <c r="C39">
-        <v>0.06179784891852719</v>
+        <v>-0.07563153140007391</v>
       </c>
       <c r="D39">
-        <v>0.1061081651696724</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1089284047358429</v>
+      </c>
+      <c r="E39">
+        <v>0.0009733350051166775</v>
+      </c>
+      <c r="F39">
+        <v>-0.004380393026748764</v>
+      </c>
+      <c r="G39">
+        <v>-0.008067528758251237</v>
+      </c>
+      <c r="H39">
+        <v>0.08815848648400215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01637264323535335</v>
+        <v>0.01309660562817976</v>
       </c>
       <c r="C40">
-        <v>0.04306656235765421</v>
+        <v>-0.040118700757912</v>
       </c>
       <c r="D40">
-        <v>0.0886133624221733</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09379292216955654</v>
+      </c>
+      <c r="E40">
+        <v>-0.03682076846818672</v>
+      </c>
+      <c r="F40">
+        <v>0.1086627785173026</v>
+      </c>
+      <c r="G40">
+        <v>-0.1760011399514853</v>
+      </c>
+      <c r="H40">
+        <v>0.100418779731457</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02989974572791806</v>
+        <v>0.02720971327637741</v>
       </c>
       <c r="C41">
-        <v>0.006330534050685043</v>
+        <v>-0.01526996600879762</v>
       </c>
       <c r="D41">
-        <v>0.06897250399846948</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05024870736894956</v>
+      </c>
+      <c r="E41">
+        <v>-0.04734853979972221</v>
+      </c>
+      <c r="F41">
+        <v>0.01594204599605764</v>
+      </c>
+      <c r="G41">
+        <v>-0.03297549106561743</v>
+      </c>
+      <c r="H41">
+        <v>0.03768486433312056</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02480524627144826</v>
+        <v>0.02070364995726059</v>
       </c>
       <c r="C43">
-        <v>0.01603800283392221</v>
+        <v>-0.02220848025856139</v>
       </c>
       <c r="D43">
-        <v>0.1049264758169554</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0797454297494435</v>
+      </c>
+      <c r="E43">
+        <v>-0.02686344089358959</v>
+      </c>
+      <c r="F43">
+        <v>0.01132835970973114</v>
+      </c>
+      <c r="G43">
+        <v>-0.02864675176848083</v>
+      </c>
+      <c r="H43">
+        <v>0.04648663131027129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01528971829223713</v>
+        <v>0.01681657052527545</v>
       </c>
       <c r="C44">
-        <v>0.04259153887911634</v>
+        <v>-0.04462790180983987</v>
       </c>
       <c r="D44">
-        <v>0.09348196226865745</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1109679167494767</v>
+      </c>
+      <c r="E44">
+        <v>-0.03374031163514792</v>
+      </c>
+      <c r="F44">
+        <v>0.02736477799668896</v>
+      </c>
+      <c r="G44">
+        <v>-0.007719474010748132</v>
+      </c>
+      <c r="H44">
+        <v>0.04253304042391663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01588084018538462</v>
+        <v>0.01161517626470721</v>
       </c>
       <c r="C46">
-        <v>0.02694169330546236</v>
+        <v>-0.03595309796313918</v>
       </c>
       <c r="D46">
-        <v>0.09991484630557525</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09816402312175791</v>
+      </c>
+      <c r="E46">
+        <v>-0.021420331436145</v>
+      </c>
+      <c r="F46">
+        <v>0.02633893847763201</v>
+      </c>
+      <c r="G46">
+        <v>-0.01265680597545211</v>
+      </c>
+      <c r="H46">
+        <v>0.08606602142286721</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08965052389005455</v>
+        <v>0.07059227295071734</v>
       </c>
       <c r="C47">
-        <v>0.0898464427487472</v>
+        <v>-0.1042079861275511</v>
       </c>
       <c r="D47">
-        <v>0.02519768281877834</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02318437968787526</v>
+      </c>
+      <c r="E47">
+        <v>-0.02763813878234908</v>
+      </c>
+      <c r="F47">
+        <v>0.02427842881143403</v>
+      </c>
+      <c r="G47">
+        <v>-0.004865476125331405</v>
+      </c>
+      <c r="H47">
+        <v>-0.04866435966626653</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01218681312355879</v>
+        <v>0.01368755849650676</v>
       </c>
       <c r="C48">
-        <v>0.02031048233303872</v>
+        <v>-0.02574501119335419</v>
       </c>
       <c r="D48">
-        <v>0.07931486866147869</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.08261935200767281</v>
+      </c>
+      <c r="E48">
+        <v>-0.05188765459544591</v>
+      </c>
+      <c r="F48">
+        <v>0.03213073582838134</v>
+      </c>
+      <c r="G48">
+        <v>-0.004197932323917792</v>
+      </c>
+      <c r="H48">
+        <v>0.05979183335848406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05128662819174396</v>
+        <v>0.03835743383839103</v>
       </c>
       <c r="C50">
-        <v>0.06292548494677815</v>
+        <v>-0.07315202873797859</v>
       </c>
       <c r="D50">
-        <v>0.0574046515074503</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05141130129372224</v>
+      </c>
+      <c r="E50">
+        <v>-0.02594106926727307</v>
+      </c>
+      <c r="F50">
+        <v>0.04143038787059629</v>
+      </c>
+      <c r="G50">
+        <v>-0.03916339856274056</v>
+      </c>
+      <c r="H50">
+        <v>0.006787853388274218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01245544047922064</v>
+        <v>0.01055974724261318</v>
       </c>
       <c r="C51">
-        <v>0.01635279663253638</v>
+        <v>-0.0231024905559666</v>
       </c>
       <c r="D51">
-        <v>0.08961293490406722</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.09387092618362348</v>
+      </c>
+      <c r="E51">
+        <v>0.002889307061129832</v>
+      </c>
+      <c r="F51">
+        <v>0.01373911278059425</v>
+      </c>
+      <c r="G51">
+        <v>-0.001653768966685377</v>
+      </c>
+      <c r="H51">
+        <v>0.06816399798080601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.104742240130825</v>
+        <v>0.09059832139171933</v>
       </c>
       <c r="C53">
-        <v>0.1064363305739559</v>
+        <v>-0.1231117425910698</v>
       </c>
       <c r="D53">
-        <v>-0.02033962564324121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01177443716325482</v>
+      </c>
+      <c r="E53">
+        <v>-0.07366587519002822</v>
+      </c>
+      <c r="F53">
+        <v>0.08308229089561131</v>
+      </c>
+      <c r="G53">
+        <v>0.003990402839606884</v>
+      </c>
+      <c r="H53">
+        <v>-0.0169590703447575</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0194904987887073</v>
+        <v>0.01803914818830154</v>
       </c>
       <c r="C54">
-        <v>0.02898555178818495</v>
+        <v>-0.03777050686011863</v>
       </c>
       <c r="D54">
-        <v>0.1061022476710408</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.09547600376868605</v>
+      </c>
+      <c r="E54">
+        <v>-0.03424025719569538</v>
+      </c>
+      <c r="F54">
+        <v>0.01915803972495197</v>
+      </c>
+      <c r="G54">
+        <v>-0.04630908671132373</v>
+      </c>
+      <c r="H54">
+        <v>0.06606621477810315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09668355138659017</v>
+        <v>0.08113286210588994</v>
       </c>
       <c r="C55">
-        <v>0.08208652486657206</v>
+        <v>-0.09949588062829362</v>
       </c>
       <c r="D55">
-        <v>-0.0311602637587498</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02469912138780121</v>
+      </c>
+      <c r="E55">
+        <v>-0.02784133270777221</v>
+      </c>
+      <c r="F55">
+        <v>0.06558445574845653</v>
+      </c>
+      <c r="G55">
+        <v>-0.02217403942757427</v>
+      </c>
+      <c r="H55">
+        <v>-0.01702250186856827</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1360461478571598</v>
+        <v>0.1135722589245294</v>
       </c>
       <c r="C56">
-        <v>0.1162453360963977</v>
+        <v>-0.14674369015974</v>
       </c>
       <c r="D56">
-        <v>-0.02846302150413511</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02679325631400395</v>
+      </c>
+      <c r="E56">
+        <v>-0.04807317778806355</v>
+      </c>
+      <c r="F56">
+        <v>0.0548953399909306</v>
+      </c>
+      <c r="G56">
+        <v>-0.02722222432224472</v>
+      </c>
+      <c r="H56">
+        <v>-0.04361212744676985</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.004099843992662338</v>
+        <v>0.005806523649733508</v>
       </c>
       <c r="C58">
-        <v>0.03944672688581423</v>
+        <v>-0.05136485542496446</v>
       </c>
       <c r="D58">
-        <v>0.2054549508323124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2679289473862968</v>
+      </c>
+      <c r="E58">
+        <v>-0.09668726197088151</v>
+      </c>
+      <c r="F58">
+        <v>0.1120614854577403</v>
+      </c>
+      <c r="G58">
+        <v>-0.05589310805767843</v>
+      </c>
+      <c r="H58">
+        <v>-0.03966292064288103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1550656300444303</v>
+        <v>0.1975656854658107</v>
       </c>
       <c r="C59">
-        <v>-0.1666863657215162</v>
+        <v>0.1403197257750712</v>
       </c>
       <c r="D59">
-        <v>0.05273180841160103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06792204763261454</v>
+      </c>
+      <c r="E59">
+        <v>-0.04221572970467667</v>
+      </c>
+      <c r="F59">
+        <v>-0.0179267018435034</v>
+      </c>
+      <c r="G59">
+        <v>0.01576245496983827</v>
+      </c>
+      <c r="H59">
+        <v>-0.02313316551711781</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2306409170767585</v>
+        <v>0.2085339560510451</v>
       </c>
       <c r="C60">
-        <v>0.08531310767520867</v>
+        <v>-0.1291953540296571</v>
       </c>
       <c r="D60">
-        <v>0.1810287517422824</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1202915851377365</v>
+      </c>
+      <c r="E60">
+        <v>0.3280466352164081</v>
+      </c>
+      <c r="F60">
+        <v>-0.1081870240847849</v>
+      </c>
+      <c r="G60">
+        <v>0.08694279388433651</v>
+      </c>
+      <c r="H60">
+        <v>-0.1689196137860424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04316485353144487</v>
+        <v>0.03447670908695893</v>
       </c>
       <c r="C61">
-        <v>0.05729813167021363</v>
+        <v>-0.06855423489944842</v>
       </c>
       <c r="D61">
-        <v>0.1142974046824636</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09790514525590804</v>
+      </c>
+      <c r="E61">
+        <v>0.004906756554084958</v>
+      </c>
+      <c r="F61">
+        <v>-0.003316664111593088</v>
+      </c>
+      <c r="G61">
+        <v>-0.004942891984289737</v>
+      </c>
+      <c r="H61">
+        <v>0.0458243603528852</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01443134756806413</v>
+        <v>0.01298396619612184</v>
       </c>
       <c r="C63">
-        <v>0.02531563802968852</v>
+        <v>-0.03501896835852101</v>
       </c>
       <c r="D63">
-        <v>0.08321240848559866</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07765640431203789</v>
+      </c>
+      <c r="E63">
+        <v>-0.006164649472383073</v>
+      </c>
+      <c r="F63">
+        <v>0.02621394698318487</v>
+      </c>
+      <c r="G63">
+        <v>-0.006376082000084143</v>
+      </c>
+      <c r="H63">
+        <v>0.04840533535322556</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05545351810432222</v>
+        <v>0.04297555826233908</v>
       </c>
       <c r="C64">
-        <v>0.07695845699631157</v>
+        <v>-0.08473070481999424</v>
       </c>
       <c r="D64">
-        <v>0.04922698199509457</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05278598588915858</v>
+      </c>
+      <c r="E64">
+        <v>-0.0160572645720125</v>
+      </c>
+      <c r="F64">
+        <v>0.005953693231659855</v>
+      </c>
+      <c r="G64">
+        <v>0.06698840715655593</v>
+      </c>
+      <c r="H64">
+        <v>0.07483238495394941</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03668332371911819</v>
+        <v>0.03358488546619097</v>
       </c>
       <c r="C65">
-        <v>0.02415470659840316</v>
+        <v>-0.03606817237948601</v>
       </c>
       <c r="D65">
-        <v>0.1228968870809677</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1137027722243063</v>
+      </c>
+      <c r="E65">
+        <v>0.007855947003902748</v>
+      </c>
+      <c r="F65">
+        <v>0.02635922976431103</v>
+      </c>
+      <c r="G65">
+        <v>-0.01287985292857805</v>
+      </c>
+      <c r="H65">
+        <v>0.02198126781284886</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04100375619685214</v>
+        <v>0.0334446931212382</v>
       </c>
       <c r="C66">
-        <v>0.06924292779746183</v>
+        <v>-0.08618284917703134</v>
       </c>
       <c r="D66">
-        <v>0.1199714083208648</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1329438780212208</v>
+      </c>
+      <c r="E66">
+        <v>-0.003170684806134788</v>
+      </c>
+      <c r="F66">
+        <v>0.001650595315581594</v>
+      </c>
+      <c r="G66">
+        <v>-0.01692592288493625</v>
+      </c>
+      <c r="H66">
+        <v>0.04567565831952838</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03702880358322865</v>
+        <v>0.03595754387741357</v>
       </c>
       <c r="C67">
-        <v>0.02221249266840148</v>
+        <v>-0.02884519634781136</v>
       </c>
       <c r="D67">
-        <v>0.04091655593105946</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03229981677182997</v>
+      </c>
+      <c r="E67">
+        <v>-0.01020957218455643</v>
+      </c>
+      <c r="F67">
+        <v>-0.02397436516460364</v>
+      </c>
+      <c r="G67">
+        <v>-0.02634700758802312</v>
+      </c>
+      <c r="H67">
+        <v>0.04109396676147607</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1910160686509998</v>
+        <v>0.230272843800289</v>
       </c>
       <c r="C68">
-        <v>-0.2006806625527363</v>
+        <v>0.1642366185263751</v>
       </c>
       <c r="D68">
-        <v>0.02528402021596141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03026150432394495</v>
+      </c>
+      <c r="E68">
+        <v>-0.01288854774631717</v>
+      </c>
+      <c r="F68">
+        <v>0.03844291991425169</v>
+      </c>
+      <c r="G68">
+        <v>-0.02406442273220967</v>
+      </c>
+      <c r="H68">
+        <v>-0.02219684463344768</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08349617200123018</v>
+        <v>0.06357134217439259</v>
       </c>
       <c r="C69">
-        <v>0.1054256797712023</v>
+        <v>-0.1110340139972913</v>
       </c>
       <c r="D69">
-        <v>0.05755915733400687</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.03812125152402119</v>
+      </c>
+      <c r="E69">
+        <v>-0.0148468347824885</v>
+      </c>
+      <c r="F69">
+        <v>0.01230699117396228</v>
+      </c>
+      <c r="G69">
+        <v>-0.01239723973199986</v>
+      </c>
+      <c r="H69">
+        <v>-0.01592581356266837</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1743471604242607</v>
+        <v>0.2148263407227797</v>
       </c>
       <c r="C71">
-        <v>-0.2057140136734083</v>
+        <v>0.1725049257198229</v>
       </c>
       <c r="D71">
-        <v>0.01369029855766105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02547557175205229</v>
+      </c>
+      <c r="E71">
+        <v>-0.03716523765035835</v>
+      </c>
+      <c r="F71">
+        <v>0.05923669529106802</v>
+      </c>
+      <c r="G71">
+        <v>-0.04198328863166476</v>
+      </c>
+      <c r="H71">
+        <v>-0.02144731616264649</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1077769246624145</v>
+        <v>0.09321801156891771</v>
       </c>
       <c r="C72">
-        <v>0.06453869173966952</v>
+        <v>-0.09195720203277383</v>
       </c>
       <c r="D72">
-        <v>0.08185371075733956</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.08081422378156868</v>
+      </c>
+      <c r="E72">
+        <v>0.06661154329203411</v>
+      </c>
+      <c r="F72">
+        <v>0.03615964866498227</v>
+      </c>
+      <c r="G72">
+        <v>0.003456555140519503</v>
+      </c>
+      <c r="H72">
+        <v>0.02705779615514919</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.218447098358535</v>
+        <v>0.1949833166511784</v>
       </c>
       <c r="C73">
-        <v>0.0490831225583228</v>
+        <v>-0.1075624976212177</v>
       </c>
       <c r="D73">
-        <v>0.3043298598716672</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1710082600586126</v>
+      </c>
+      <c r="E73">
+        <v>0.5819758051533774</v>
+      </c>
+      <c r="F73">
+        <v>-0.1818537183569165</v>
+      </c>
+      <c r="G73">
+        <v>0.1530139673218097</v>
+      </c>
+      <c r="H73">
+        <v>-0.2016911094742175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1090383656753062</v>
+        <v>0.08928408946527942</v>
       </c>
       <c r="C74">
-        <v>0.08756211375208574</v>
+        <v>-0.1079298264983155</v>
       </c>
       <c r="D74">
-        <v>-0.04250737327744125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04049999123662996</v>
+      </c>
+      <c r="E74">
+        <v>-0.02863340851852419</v>
+      </c>
+      <c r="F74">
+        <v>0.07258334649960295</v>
+      </c>
+      <c r="G74">
+        <v>0.01917834082729433</v>
+      </c>
+      <c r="H74">
+        <v>-0.03549763919262121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2563225105401853</v>
+        <v>0.2128516871722779</v>
       </c>
       <c r="C75">
-        <v>0.1632564481077632</v>
+        <v>-0.2052556315649894</v>
       </c>
       <c r="D75">
-        <v>-0.127294153168598</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1452300458231514</v>
+      </c>
+      <c r="E75">
+        <v>-0.07981323246507628</v>
+      </c>
+      <c r="F75">
+        <v>0.0134677146985092</v>
+      </c>
+      <c r="G75">
+        <v>-0.04700322439457721</v>
+      </c>
+      <c r="H75">
+        <v>-0.04901507358847117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1472763123727241</v>
+        <v>0.119960513090551</v>
       </c>
       <c r="C76">
-        <v>0.1133510178171569</v>
+        <v>-0.1391403922757598</v>
       </c>
       <c r="D76">
-        <v>-0.03307513057482976</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.03579209010386306</v>
+      </c>
+      <c r="E76">
+        <v>-0.07688876174423542</v>
+      </c>
+      <c r="F76">
+        <v>0.03948813271333909</v>
+      </c>
+      <c r="G76">
+        <v>-0.0272581490335944</v>
+      </c>
+      <c r="H76">
+        <v>0.02741309216743796</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04154692566584874</v>
+        <v>0.04544368410703083</v>
       </c>
       <c r="C77">
-        <v>0.07426948080095649</v>
+        <v>-0.08398424419471305</v>
       </c>
       <c r="D77">
-        <v>0.02612800406543579</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1326688364499931</v>
+      </c>
+      <c r="E77">
+        <v>-0.4788122820738766</v>
+      </c>
+      <c r="F77">
+        <v>-0.3820253664730425</v>
+      </c>
+      <c r="G77">
+        <v>-0.09436376394287357</v>
+      </c>
+      <c r="H77">
+        <v>-0.6841903916002946</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04173436192829009</v>
+        <v>0.03965953845374622</v>
       </c>
       <c r="C78">
-        <v>0.06326375604827368</v>
+        <v>-0.0739209287681586</v>
       </c>
       <c r="D78">
-        <v>0.135355843209291</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1394770965432073</v>
+      </c>
+      <c r="E78">
+        <v>-0.009936335156325908</v>
+      </c>
+      <c r="F78">
+        <v>0.04022222096542371</v>
+      </c>
+      <c r="G78">
+        <v>0.008216124246232345</v>
+      </c>
+      <c r="H78">
+        <v>-0.01929295040651244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.05514770670823916</v>
+        <v>0.05090546309548609</v>
       </c>
       <c r="C79">
-        <v>0.1053440893509045</v>
+        <v>-0.1140400834871348</v>
       </c>
       <c r="D79">
-        <v>-0.1635042253640725</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.07844564211310071</v>
+      </c>
+      <c r="E79">
+        <v>-0.1930386345250168</v>
+      </c>
+      <c r="F79">
+        <v>0.4192862130194512</v>
+      </c>
+      <c r="G79">
+        <v>0.7799059933782435</v>
+      </c>
+      <c r="H79">
+        <v>-0.1191272355097314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02112578653843484</v>
+        <v>0.0175070998877236</v>
       </c>
       <c r="C80">
-        <v>0.04915758155370825</v>
+        <v>-0.04978596890377178</v>
       </c>
       <c r="D80">
-        <v>0.02699984805156789</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02420916726464328</v>
+      </c>
+      <c r="E80">
+        <v>-0.008458001355994534</v>
+      </c>
+      <c r="F80">
+        <v>0.02010008886382833</v>
+      </c>
+      <c r="G80">
+        <v>-0.03159119317759211</v>
+      </c>
+      <c r="H80">
+        <v>0.05393212672561946</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1324779946903643</v>
+        <v>0.1035173558539233</v>
       </c>
       <c r="C81">
-        <v>0.1185220984876267</v>
+        <v>-0.1388721042983767</v>
       </c>
       <c r="D81">
-        <v>-0.1112307748660556</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1050553959059735</v>
+      </c>
+      <c r="E81">
+        <v>-0.09663657334152284</v>
+      </c>
+      <c r="F81">
+        <v>0.06087782332563908</v>
+      </c>
+      <c r="G81">
+        <v>-0.02582262224556488</v>
+      </c>
+      <c r="H81">
+        <v>0.02550989589183893</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2676588026335107</v>
+        <v>0.2037371608801953</v>
       </c>
       <c r="C82">
-        <v>0.2434761947593839</v>
+        <v>-0.2657842080943698</v>
       </c>
       <c r="D82">
-        <v>-0.2301925951945352</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2345798541560325</v>
+      </c>
+      <c r="E82">
+        <v>-0.002587995545562228</v>
+      </c>
+      <c r="F82">
+        <v>-0.03884908702326617</v>
+      </c>
+      <c r="G82">
+        <v>-0.08063187102735511</v>
+      </c>
+      <c r="H82">
+        <v>-0.003411958319872617</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01813671512530405</v>
+        <v>0.009792451735457314</v>
       </c>
       <c r="C83">
-        <v>0.05997405993383513</v>
+        <v>-0.05543840009519346</v>
       </c>
       <c r="D83">
-        <v>0.04524888752207939</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05215772575420322</v>
+      </c>
+      <c r="E83">
+        <v>-0.05683758854254466</v>
+      </c>
+      <c r="F83">
+        <v>-0.07076622117133539</v>
+      </c>
+      <c r="G83">
+        <v>0.007961905336880907</v>
+      </c>
+      <c r="H83">
+        <v>-0.02681131179279381</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.001037104128727533</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.006038312190988777</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01919390745068192</v>
+      </c>
+      <c r="E84">
+        <v>-0.01239499315347312</v>
+      </c>
+      <c r="F84">
+        <v>0.02089007152549673</v>
+      </c>
+      <c r="G84">
+        <v>-0.01224762613415782</v>
+      </c>
+      <c r="H84">
+        <v>0.01982993647535279</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.167873746896686</v>
+        <v>0.1362517573710706</v>
       </c>
       <c r="C85">
-        <v>0.1262109311046581</v>
+        <v>-0.1609667837485629</v>
       </c>
       <c r="D85">
-        <v>-0.06391163991660252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0877010977012304</v>
+      </c>
+      <c r="E85">
+        <v>-0.01193380075676612</v>
+      </c>
+      <c r="F85">
+        <v>0.05507363342964621</v>
+      </c>
+      <c r="G85">
+        <v>0.05366469285252059</v>
+      </c>
+      <c r="H85">
+        <v>0.02238335955813229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02193817008918292</v>
+        <v>0.01921321839929853</v>
       </c>
       <c r="C86">
-        <v>0.0395762676606934</v>
+        <v>-0.03914380601836517</v>
       </c>
       <c r="D86">
-        <v>0.1176783665438537</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1192477701974164</v>
+      </c>
+      <c r="E86">
+        <v>-0.02868382533387776</v>
+      </c>
+      <c r="F86">
+        <v>-0.01135346162921178</v>
+      </c>
+      <c r="G86">
+        <v>-0.03711629445022666</v>
+      </c>
+      <c r="H86">
+        <v>-0.05861345309983694</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02617720167740415</v>
+        <v>0.03150167359641078</v>
       </c>
       <c r="C87">
-        <v>0.02327517127644764</v>
+        <v>-0.03529398259100965</v>
       </c>
       <c r="D87">
-        <v>0.1110423224199866</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1390918922842167</v>
+      </c>
+      <c r="E87">
+        <v>-0.05533031961405437</v>
+      </c>
+      <c r="F87">
+        <v>0.03408985969790266</v>
+      </c>
+      <c r="G87">
+        <v>-0.01506213219812724</v>
+      </c>
+      <c r="H87">
+        <v>0.03849833038495627</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07174643690979016</v>
+        <v>0.05865867668128044</v>
       </c>
       <c r="C88">
-        <v>0.04605840619368755</v>
+        <v>-0.06162984146111301</v>
       </c>
       <c r="D88">
-        <v>0.04422552816130105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01876599344714748</v>
+      </c>
+      <c r="E88">
+        <v>-0.003901022618546155</v>
+      </c>
+      <c r="F88">
+        <v>0.02529636933996342</v>
+      </c>
+      <c r="G88">
+        <v>0.003272290120840104</v>
+      </c>
+      <c r="H88">
+        <v>0.04341190550357003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2694707848349959</v>
+        <v>0.3280589478094655</v>
       </c>
       <c r="C89">
-        <v>-0.3754488543595123</v>
+        <v>0.3057725155812218</v>
       </c>
       <c r="D89">
-        <v>-0.007987745689423382</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.003710491339535487</v>
+      </c>
+      <c r="E89">
+        <v>-0.06224093148960953</v>
+      </c>
+      <c r="F89">
+        <v>-0.008454883341339325</v>
+      </c>
+      <c r="G89">
+        <v>0.02635742232587384</v>
+      </c>
+      <c r="H89">
+        <v>0.1547694943539861</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.228079600809029</v>
+        <v>0.2701556449610054</v>
       </c>
       <c r="C90">
-        <v>-0.2768607430135181</v>
+        <v>0.2169461833308117</v>
       </c>
       <c r="D90">
-        <v>0.02083262096876384</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03465045468230967</v>
+      </c>
+      <c r="E90">
+        <v>-0.04943422755988274</v>
+      </c>
+      <c r="F90">
+        <v>0.002070787294527145</v>
+      </c>
+      <c r="G90">
+        <v>-0.06096449143333885</v>
+      </c>
+      <c r="H90">
+        <v>0.01964926655913306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1705374464818554</v>
+        <v>0.1343550470969524</v>
       </c>
       <c r="C91">
-        <v>0.1664723948526727</v>
+        <v>-0.1804805649008899</v>
       </c>
       <c r="D91">
-        <v>-0.1314320286404178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1209394412602469</v>
+      </c>
+      <c r="E91">
+        <v>-0.09834020358904762</v>
+      </c>
+      <c r="F91">
+        <v>0.06017790770892247</v>
+      </c>
+      <c r="G91">
+        <v>0.03768453605677576</v>
+      </c>
+      <c r="H91">
+        <v>-0.02715126583315617</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1944565289542757</v>
+        <v>0.2581303939187308</v>
       </c>
       <c r="C92">
-        <v>-0.2698430073783005</v>
+        <v>0.2395351833818894</v>
       </c>
       <c r="D92">
-        <v>0.01199143778589945</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02865793559511003</v>
+      </c>
+      <c r="E92">
+        <v>-0.1087089576755185</v>
+      </c>
+      <c r="F92">
+        <v>0.01344657775772382</v>
+      </c>
+      <c r="G92">
+        <v>-0.009435865690223756</v>
+      </c>
+      <c r="H92">
+        <v>0.05211960824154754</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2458121722004356</v>
+        <v>0.2843099930528031</v>
       </c>
       <c r="C93">
-        <v>-0.2909675884491854</v>
+        <v>0.2279219647890559</v>
       </c>
       <c r="D93">
-        <v>0.02653008611410329</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01026095818459889</v>
+      </c>
+      <c r="E93">
+        <v>0.01402731023780919</v>
+      </c>
+      <c r="F93">
+        <v>0.03454966394939182</v>
+      </c>
+      <c r="G93">
+        <v>0.009842437587447576</v>
+      </c>
+      <c r="H93">
+        <v>-0.01553636324867321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3423888242013238</v>
+        <v>0.279922295265695</v>
       </c>
       <c r="C94">
-        <v>0.2128681980264951</v>
+        <v>-0.2800444366262903</v>
       </c>
       <c r="D94">
-        <v>-0.3503704994705622</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3805923441916672</v>
+      </c>
+      <c r="E94">
+        <v>-0.009551145801428221</v>
+      </c>
+      <c r="F94">
+        <v>-0.04459706804946916</v>
+      </c>
+      <c r="G94">
+        <v>-0.2583201152901715</v>
+      </c>
+      <c r="H94">
+        <v>0.1948523986106589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06948461385675232</v>
+        <v>0.06189334497612434</v>
       </c>
       <c r="C95">
-        <v>0.07979871563909435</v>
+        <v>-0.08992083145966673</v>
       </c>
       <c r="D95">
-        <v>0.1495902848482537</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1228364082505855</v>
+      </c>
+      <c r="E95">
+        <v>-0.2163161583059679</v>
+      </c>
+      <c r="F95">
+        <v>-0.680031944657137</v>
+      </c>
+      <c r="G95">
+        <v>0.3803178777209799</v>
+      </c>
+      <c r="H95">
+        <v>0.4383889648491202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1.361771461409027e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-3.636411195277829e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0001195269516295353</v>
+      </c>
+      <c r="E97">
+        <v>-0.0002229514914264105</v>
+      </c>
+      <c r="F97">
+        <v>0.000366660331010896</v>
+      </c>
+      <c r="G97">
+        <v>-0.0003278534838698157</v>
+      </c>
+      <c r="H97">
+        <v>-0.000233193366682272</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.172801296779228</v>
+        <v>0.1600421851367448</v>
       </c>
       <c r="C98">
-        <v>0.05661614899282029</v>
+        <v>-0.09663550569059734</v>
       </c>
       <c r="D98">
-        <v>0.1537270904065031</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1048089320657209</v>
+      </c>
+      <c r="E98">
+        <v>0.3301033763168127</v>
+      </c>
+      <c r="F98">
+        <v>-0.07542376984179906</v>
+      </c>
+      <c r="G98">
+        <v>0.07047902339260578</v>
+      </c>
+      <c r="H98">
+        <v>-0.124606994898637</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003335683410283237</v>
+        <v>0.005097216198875953</v>
       </c>
       <c r="C101">
-        <v>0.02187925889037249</v>
+        <v>-0.0263360066027136</v>
       </c>
       <c r="D101">
-        <v>0.09224941513423261</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.101092414571679</v>
+      </c>
+      <c r="E101">
+        <v>-0.009509299919474848</v>
+      </c>
+      <c r="F101">
+        <v>0.04762218419746937</v>
+      </c>
+      <c r="G101">
+        <v>-0.02064987528850832</v>
+      </c>
+      <c r="H101">
+        <v>0.08247793974277373</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1223449423974195</v>
+        <v>0.08927869186418762</v>
       </c>
       <c r="C102">
-        <v>0.1309959734288171</v>
+        <v>-0.1340907065603816</v>
       </c>
       <c r="D102">
-        <v>-0.09738792334949173</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.1016582571371305</v>
+      </c>
+      <c r="E102">
+        <v>-0.02516231222961095</v>
+      </c>
+      <c r="F102">
+        <v>-0.03453634310997184</v>
+      </c>
+      <c r="G102">
+        <v>-0.03196376472509097</v>
+      </c>
+      <c r="H102">
+        <v>-0.003149883031608002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
